--- a/inst/extdata/african_countries.xlsx
+++ b/inst/extdata/african_countries.xlsx
@@ -107,7 +107,7 @@
     <t xml:space="preserve">Gabon</t>
   </si>
   <si>
-    <t xml:space="preserve">Gambia</t>
+    <t xml:space="preserve">The Gambia</t>
   </si>
   <si>
     <t xml:space="preserve">Ghana</t>
@@ -119,7 +119,7 @@
     <t xml:space="preserve">Guinea-Bissau</t>
   </si>
   <si>
-    <t xml:space="preserve">Ivory Coast</t>
+    <t xml:space="preserve">Côte d'Ivoire</t>
   </si>
   <si>
     <t xml:space="preserve">Kenya</t>
@@ -164,7 +164,7 @@
     <t xml:space="preserve">Nigeria</t>
   </si>
   <si>
-    <t xml:space="preserve">Republic of the Congo</t>
+    <t xml:space="preserve">Republic of Congo</t>
   </si>
   <si>
     <t xml:space="preserve">Rwanda</t>
@@ -1009,12 +1009,8 @@
       <c r="D21" t="n">
         <v>316</v>
       </c>
-      <c r="E21" t="n">
-        <v>5481961000</v>
-      </c>
-      <c r="F21" t="n">
-        <v>2076.5664</v>
-      </c>
+      <c r="E21"/>
+      <c r="F21"/>
       <c r="G21" t="n">
         <v>0.5</v>
       </c>
@@ -1099,12 +1095,8 @@
       <c r="D25" t="n">
         <v>218</v>
       </c>
-      <c r="E25" t="n">
-        <v>146322500000</v>
-      </c>
-      <c r="F25" t="n">
-        <v>5325.0303</v>
-      </c>
+      <c r="E25"/>
+      <c r="F25"/>
       <c r="G25" t="n">
         <v>0.55</v>
       </c>
@@ -1444,12 +1436,8 @@
       <c r="D40" t="n">
         <v>329</v>
       </c>
-      <c r="E40" t="n">
-        <v>18875290000</v>
-      </c>
-      <c r="F40" t="n">
-        <v>3234.393</v>
-      </c>
+      <c r="E40"/>
+      <c r="F40"/>
       <c r="G40" t="n">
         <v>0.57</v>
       </c>
